--- a/data/income_statement/2digits/size/22_IS_MICRO.xlsx
+++ b/data/income_statement/2digits/size/22_IS_MICRO.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>22-Manufacture of rubber and plastic products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>22-Manufacture of rubber and plastic products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,854 +841,964 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>948108.06236</v>
+        <v>1054353.51448</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1048189.94159</v>
+        <v>1156900.14298</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>1173002.9503</v>
+        <v>1303418.08008</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>1079683.99672</v>
+        <v>1233133.64375</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>1105024.47033</v>
+        <v>1309866.70128</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>1087777.20656</v>
+        <v>1345725.07377</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>1156492.57593</v>
+        <v>1446858.37671</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1003019.66291</v>
+        <v>1332966.23153</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1029567.47653</v>
+        <v>1383577.8084</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>3623703.82927</v>
+        <v>4110648.64117</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>3734210.265</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>4555208.383529999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>4755786.063</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>872910.7225799999</v>
+        <v>972198.10093</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>980512.54659</v>
+        <v>1081075.1177</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1102305.34333</v>
+        <v>1221042.12064</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>1003433.12585</v>
+        <v>1145018.57454</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>1005353.67767</v>
+        <v>1192850.70988</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>1011723.01282</v>
+        <v>1250360.11115</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>1086127.86006</v>
+        <v>1355802.39901</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>922521.59363</v>
+        <v>1230186.17162</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>935688.89994</v>
+        <v>1267144.26797</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>3244088.75547</v>
+        <v>3685529.35677</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>3327874.34606</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>4095551.65671</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>4273210.791</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>63318.94392000001</v>
+        <v>68214.76987999999</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>57753.82092</v>
+        <v>63477.67634000001</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>60320.24905</v>
+        <v>68474.73531</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>66217.89651000001</v>
+        <v>72933.32187999999</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>87294.76252999999</v>
+        <v>97898.57386</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>64950.42083</v>
+        <v>77055.84515000001</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>60844.35715</v>
+        <v>73682.67706</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>71726.32872</v>
+        <v>85194.98255000002</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>84681.91995</v>
+        <v>95573.99751</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>350147.4194</v>
+        <v>377689.39415</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>366505.87625</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>397745.90309</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>411638.099</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>11878.39586</v>
+        <v>13940.64367</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>9923.574079999999</v>
+        <v>12347.34894</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>10377.35792</v>
+        <v>13901.22413</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>10032.97436</v>
+        <v>15181.74733</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>12376.03013</v>
+        <v>19117.41754</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>11103.77291</v>
+        <v>18309.11747</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>9520.358719999998</v>
+        <v>17373.30064</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>8771.74056</v>
+        <v>17585.07736</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>9196.656640000001</v>
+        <v>20859.54292</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>29467.6544</v>
+        <v>47429.89025</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>39830.04268999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>61910.82373</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>70937.173</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>7294.357150000001</v>
+        <v>9079.272469999998</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>8822.43397</v>
+        <v>9931.438749999999</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>8887.210720000001</v>
+        <v>10139.77783</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>8728.44814</v>
+        <v>10065.49674</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>5547.055260000001</v>
+        <v>7314.38442</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>6579.51733</v>
+        <v>10675.90118</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>6667.524</v>
+        <v>8079.62053</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>6373.11521</v>
+        <v>10279.26009</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>5072.85602</v>
+        <v>9121.803039999999</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>25110.91984</v>
+        <v>29950.94051</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>32534.54637</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>43512.54418</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>54548.547</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>5555.77443</v>
+        <v>6770.822099999999</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>6765.607410000001</v>
+        <v>7787.532619999999</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>6215.63989</v>
+        <v>7018.443979999999</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>7020.073689999999</v>
+        <v>8262.986139999999</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>4350.252469999999</v>
+        <v>5490.51377</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>4725.50553</v>
+        <v>6547.93131</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>5023.94549</v>
+        <v>6267.68739</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>4566.12931</v>
+        <v>6782.4156</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>3684.07718</v>
+        <v>6725.62546</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>17436.55035</v>
+        <v>20875.2219</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>26936.19693</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>36876.12736</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>48060.736</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1395.40329</v>
+        <v>1839.97049</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>1628.30948</v>
+        <v>1697.52051</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>2220.28007</v>
+        <v>2636.94859</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1069.52943</v>
+        <v>1147.69572</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>967.6865600000001</v>
+        <v>1558.08956</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1588.87201</v>
+        <v>3834.54987</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>1467.47586</v>
+        <v>1584.94046</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1631.89875</v>
+        <v>3268.80796</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>1274.3601</v>
+        <v>2052.16268</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>6416.66512</v>
+        <v>7573.37102</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>4590.31852</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>5087.00892</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>5079.288</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>343.17943</v>
+        <v>468.47988</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>428.51708</v>
+        <v>446.38562</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>451.29076</v>
+        <v>484.38526</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>638.84502</v>
+        <v>654.81488</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>229.11623</v>
+        <v>265.7810899999999</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>265.13979</v>
+        <v>293.42</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>176.10265</v>
+        <v>226.99268</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>175.08715</v>
+        <v>228.03653</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>114.41874</v>
+        <v>344.0149</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1257.70437</v>
+        <v>1502.34759</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>1008.03092</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>1549.4079</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1408.523</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>940813.7052099999</v>
+        <v>1045274.24201</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1039367.50762</v>
+        <v>1146968.70423</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>1164115.73958</v>
+        <v>1293278.30225</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>1070955.54858</v>
+        <v>1223068.14701</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>1099477.41507</v>
+        <v>1302552.31686</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>1081197.68923</v>
+        <v>1335049.17259</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>1149825.05193</v>
+        <v>1438778.75618</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>996646.5477</v>
+        <v>1322686.97144</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1024494.62051</v>
+        <v>1374456.00536</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>3598592.90943</v>
+        <v>4080697.700660001</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>3701675.71863</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>4511695.83935</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>4701237.516</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>790750.9395099999</v>
+        <v>875782.85012</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>870469.77946</v>
+        <v>959296.66701</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>987267.23865</v>
+        <v>1093521.19509</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>896346.8104599999</v>
+        <v>1024666.70532</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>918490.1495899999</v>
+        <v>1085764.62402</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>932593.9437599999</v>
+        <v>1137446.78592</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>993304.7220299999</v>
+        <v>1231585.22466</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>839405.75966</v>
+        <v>1104898.4978</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>874557.18279</v>
+        <v>1154904.70019</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>3103019.81683</v>
+        <v>3517283.618</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>3208663.0429</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>3888408.58278</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>4031621.486</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>421175.84425</v>
+        <v>473971.34079</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>467772.22001</v>
+        <v>526907.15394</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>484611.40679</v>
+        <v>556014.18467</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>453236.95006</v>
+        <v>541807.5496499999</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>402271.27646</v>
+        <v>516869.44417</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>431774.5603599999</v>
+        <v>571028.7501700001</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>434483.91901</v>
+        <v>582436.2036</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>439176.64582</v>
+        <v>611054.7368300001</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>427161.07651</v>
+        <v>597220.4262699999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>1729016.99415</v>
+        <v>1972937.14219</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>1740549.42251</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>2157266.84401</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>2064208.609</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>330107.72598</v>
+        <v>357706.49894</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>358239.48906</v>
+        <v>383945.96313</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>453603.5146</v>
+        <v>485262.75345</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>392589.1686499999</v>
+        <v>425499.67274</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>470306.99502</v>
+        <v>518363.39232</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>457258.17038</v>
+        <v>510573.65791</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>518281.17417</v>
+        <v>593538.68091</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>353995.15717</v>
+        <v>435632.23976</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>412616.9333</v>
+        <v>504784.7138</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>1248540.6453</v>
+        <v>1396497.28598</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1334836.68025</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1569711.62112</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1807471.141</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>35915.49641</v>
+        <v>39834.20027</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>40951.92236</v>
+        <v>44730.44907</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>44714.40927</v>
+        <v>47827.40785</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>48628.27153</v>
+        <v>54891.37272</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>41027.60673000001</v>
+        <v>44964.10606000001</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>36425.41713</v>
+        <v>47265.55565</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>37496.94272</v>
+        <v>50960.90068</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>41176.85414</v>
+        <v>50710.74171</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>31972.78639</v>
+        <v>45849.08237</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>107883.06165</v>
+        <v>121410.19857</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>111118.62887</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>136553.2686</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>140231.484</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>3551.87287</v>
+        <v>4270.81012</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>3506.14803</v>
+        <v>3713.10087</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>4337.907990000001</v>
+        <v>4416.84912</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>1892.42022</v>
+        <v>2468.11021</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>4884.27138</v>
+        <v>5567.68147</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>7135.79589</v>
+        <v>8578.822190000001</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>3042.68613</v>
+        <v>4649.439469999999</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>5057.10253</v>
+        <v>7500.7795</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>2806.38659</v>
+        <v>7050.47775</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>17579.11573</v>
+        <v>26438.99126</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>22158.31127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>24876.84905</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>19710.252</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>150062.7657</v>
+        <v>169491.39189</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>168897.72816</v>
+        <v>187672.03722</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>176848.50093</v>
+        <v>199757.10716</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>174608.73812</v>
+        <v>198401.44169</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>180987.26548</v>
+        <v>216787.69284</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>148603.74547</v>
+        <v>197602.38667</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>156520.3299</v>
+        <v>207193.53152</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>157240.78804</v>
+        <v>217788.47364</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>149937.43772</v>
+        <v>219551.30517</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>495573.0926</v>
+        <v>563414.08266</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>493012.67573</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>623287.25657</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>669616.03</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>130325.82755</v>
+        <v>156469.53911</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>139999.39496</v>
+        <v>165899.0093</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>143385.50133</v>
+        <v>174866.50682</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>144870.11459</v>
+        <v>196417.48874</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>168687.82347</v>
+        <v>211126.34559</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>132737.37287</v>
+        <v>184935.69486</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>141666.76035</v>
+        <v>203292.69431</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>141819.59234</v>
+        <v>219609.35857</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>141475.28516</v>
+        <v>219263.3682</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>388631.55311</v>
+        <v>468442.6656599999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>434382.954</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>560783.88604</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>553837.201</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>572.87563</v>
+        <v>678.1539799999999</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>488.57948</v>
+        <v>489.07948</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>123.93375</v>
+        <v>125.96727</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>591.87348</v>
+        <v>594.0148799999999</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>246.51024</v>
+        <v>266.18302</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>114.84504</v>
+        <v>115.84804</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>864.35978</v>
+        <v>864.64549</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>544.726</v>
+        <v>587.28225</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>212.01987</v>
+        <v>269.8998</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>499.69579</v>
+        <v>524.42204</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>867.3908599999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>1149.41435</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>951.227</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>21584.18067</v>
+        <v>27875.83855</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>24006.30922</v>
+        <v>27067.84662</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>23782.62182</v>
+        <v>27592.60278</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>24217.04588</v>
+        <v>31369.68699</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>54745.67645</v>
+        <v>61009.17879</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>21372.43099</v>
+        <v>29119.35096</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>21424.86992</v>
+        <v>30042.24739</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>20977.59857</v>
+        <v>32039.77098</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>22939.13491</v>
+        <v>33170.45475</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>71187.75079999999</v>
+        <v>82270.73534</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>87849.07272</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>106863.32286</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>89367.692</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>108168.77125</v>
+        <v>127915.54658</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>115504.50626</v>
+        <v>138342.0832</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>119478.94576</v>
+        <v>147147.93677</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>120061.19523</v>
+        <v>164453.78687</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>113695.63678</v>
+        <v>149850.98378</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>111250.09684</v>
+        <v>155700.49586</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>119377.53065</v>
+        <v>172385.80143</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>120297.26777</v>
+        <v>186982.30534</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>118324.13038</v>
+        <v>185823.01365</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>316944.10652</v>
+        <v>385647.50828</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>345666.49042</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>452771.14883</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>463518.282</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>19736.93815</v>
+        <v>13021.85278</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>28898.3332</v>
+        <v>21773.02792</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>33462.9996</v>
+        <v>24890.60034</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>29738.62353</v>
+        <v>1983.952950000003</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>12299.44201</v>
+        <v>5661.34725</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>15866.3726</v>
+        <v>12666.69181</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>14853.56955</v>
+        <v>3900.837210000001</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>15421.1957</v>
+        <v>-1820.88493</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>8462.152559999999</v>
+        <v>287.9369700000007</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>106941.53949</v>
+        <v>94971.417</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>58629.72173</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>62503.37053</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>115778.829</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>4302.02394</v>
+        <v>41996.47608</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>4593.028469999999</v>
+        <v>22876.82407</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>4795.62481</v>
+        <v>23696.98135</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>3777.49502</v>
+        <v>15366.10603</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>7404.48718</v>
+        <v>27540.76149</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>4463.959809999999</v>
+        <v>21313.37233</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>6344.29233</v>
+        <v>39925.97388000001</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>13626.23786</v>
+        <v>53759.64870000001</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>8717.513929999999</v>
+        <v>49359.80165</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>53117.98234</v>
+        <v>132660.95933</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>37766.93336</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>95707.36106</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>101267.123</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>4.5</v>
+        <v>4.64495</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>0.456</v>
+        <v>185.35417</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>24.24384</v>
+        <v>664.05646</v>
       </c>
       <c r="F26" s="48" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>0</v>
+        <v>1733.46973</v>
       </c>
       <c r="H26" s="48" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>0</v>
+        <v>17.56634</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>0</v>
@@ -1801,245 +1812,280 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>30.3048</v>
+        <v>21420.39053</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>22.7286</v>
+        <v>4593.80149</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>0</v>
+        <v>1961.83386</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>32.3643</v>
+        <v>823.96916</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>0</v>
+        <v>918.71266</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>0</v>
+        <v>2.26601</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>0</v>
+        <v>1908.08212</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>0</v>
+        <v>2580.23593</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>0</v>
+        <v>4082.61435</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>0</v>
+        <v>4633.13975</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>4413.17223</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>3174.017</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>453.22281</v>
+        <v>4921.62418</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>333.14984</v>
+        <v>4310.50692</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>295.97209</v>
+        <v>4136.55258</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>293.50879</v>
+        <v>2951.32912</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>373.24312</v>
+        <v>3424.37725</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>422.72013</v>
+        <v>4374.427360000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>369.47169</v>
+        <v>7292.036950000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>292.52379</v>
+        <v>4321.19658</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>469.43751</v>
+        <v>4429.629059999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>4105.69331</v>
+        <v>16227.88863</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>4441.8542</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>9975.176629999998</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>6736.71</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>242.63433</v>
+        <v>282.74957</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>121.81747</v>
+        <v>132.17442</v>
       </c>
       <c r="E29" s="48" t="n">
-        <v>8.149320000000001</v>
+        <v>58.26351</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>2.12483</v>
+        <v>2.37374</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>73.54344</v>
+        <v>599.0834599999999</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>465.53429</v>
+        <v>549.29116</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>54.83708</v>
+        <v>150.21237</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>8.21256</v>
+        <v>16.87521</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>626.60198</v>
+        <v>646.42698</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>204.28807</v>
+        <v>314.57707</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>136.79342</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>1421.21034</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>485.355</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>64.08914</v>
+        <v>1669.74139</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>98.95726999999999</v>
+        <v>827.7086899999999</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>160.36426</v>
+        <v>263.51111</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>251.4839</v>
+        <v>267.45969</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1296.9164</v>
+        <v>1642.99781</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>43.37072</v>
+        <v>206.18658</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>116.38303</v>
+        <v>749.9004199999999</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>68.51438</v>
+        <v>521.65972</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>383.79077</v>
+        <v>1180.9097</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>841.1459199999999</v>
+        <v>1705.59446</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>2466.05519</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>3252.43058</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>1856.773</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>97.63834</v>
+        <v>113.81798</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>7.39046</v>
+        <v>17.60198</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>19.86421</v>
+        <v>52.4565</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>35.18557</v>
+        <v>190.0106</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>46.85649</v>
+        <v>50.55872</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>92.55018</v>
+        <v>100.41839</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>56.05525</v>
+        <v>133.642</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>23.37878</v>
+        <v>713.38211</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>33.85027</v>
+        <v>65.82338</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>254.33514</v>
+        <v>315.06321</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>426.3033</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>488.91618</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>627.082</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>2119.65449</v>
+        <v>7713.69829</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1762.63473</v>
+        <v>4994.12745</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>2217.14008</v>
+        <v>8608.34935</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1468.61213</v>
+        <v>4547.083479999999</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1812.32297</v>
+        <v>10650.7389</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1397.96637</v>
+        <v>8719.533549999998</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>3344.51405</v>
+        <v>20302.82328</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>3525.56925</v>
+        <v>15265.07881</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>4568.63519</v>
+        <v>12836.5936</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>38795.17292</v>
+        <v>75543.12509999999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>21306.23371</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>35153.25026</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>69493.265</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>19.8</v>
@@ -2048,7 +2094,7 @@
         <v>15.59311</v>
       </c>
       <c r="E33" s="48" t="n">
-        <v>9.65414</v>
+        <v>47.05414</v>
       </c>
       <c r="F33" s="48" t="n">
         <v>9.80702</v>
@@ -2057,16 +2103,16 @@
         <v>0.1568</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>0.0005</v>
+        <v>0.16541</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>14.46103</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>9.20232</v>
+        <v>14.0564</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>7.02844</v>
+        <v>7.15035</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>37.30724000000001</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>7.250220000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>3.613</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>9.28551</v>
@@ -2102,262 +2153,297 @@
         <v>187.67882</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>25.27034</v>
+        <v>68.00348</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>113.542</v>
+        <v>229.08349</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>39.17377</v>
+        <v>51.69932</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>80.06807000000001</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>84.95206</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>15.294</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>1260.89452</v>
+        <v>5840.72368</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>1708.50033</v>
+        <v>7278.15518</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>2034.43469</v>
+        <v>7879.10166</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>1650.13363</v>
+        <v>6539.79837</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>3780.78442</v>
+        <v>8500.002619999999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>2039.27525</v>
+        <v>7358.5415</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>2200.89138</v>
+        <v>9169.570549999999</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>9673.566439999999</v>
+        <v>30259.16046</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>2514.62777</v>
+        <v>25881.57074</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>8828.956910000001</v>
+        <v>33820.65549</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>8902.375249999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>40911.00256</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>18875.014</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>4897.30765</v>
+        <v>14590.16873</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>4591.888599999999</v>
+        <v>15616.67171</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>5099.809230000001</v>
+        <v>10783.41435</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>4036.76869</v>
+        <v>10324.33697</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>4859.6249</v>
+        <v>17569.96502</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>6131.243530000001</v>
+        <v>16378.07227</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>4462.75303</v>
+        <v>33357.04283</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>7378.5018</v>
+        <v>23304.39638</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>10998.34382</v>
+        <v>25421.47663</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>51244.21014</v>
+        <v>112383.8462</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>33116.91047</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>75454.14225</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>98809.431</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>201.29722</v>
+        <v>206.98734</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>204.93605</v>
+        <v>215.57182</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>410.45114</v>
+        <v>451.4330400000001</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>166.31437</v>
+        <v>214.12789</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>125.71616</v>
+        <v>158.57244</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>189.05737</v>
+        <v>278.23635</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>96.28948</v>
+        <v>147.06418</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>136.91898</v>
+        <v>215.37861</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>52.02992</v>
+        <v>134.36087</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>331.85752</v>
+        <v>363.22828</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>645.86135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>741.55389</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>639.903</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>879.35262</v>
+        <v>2379.84527</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>895.1169699999999</v>
+        <v>4308.16573</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>280.3624599999999</v>
+        <v>787.76523</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>653.62033</v>
+        <v>2545.20158</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>1220.79834</v>
+        <v>1565.05757</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>765.6990500000001</v>
+        <v>887.46921</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>683.0669</v>
+        <v>2451.73322</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>2179.39953</v>
+        <v>2749.92914</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>4605.09862</v>
+        <v>5240.86726</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>1664.49444</v>
+        <v>1860.10937</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>6965.20368</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>7215.22636</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>5075.695</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>86.16357999999998</v>
+        <v>89.67559</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>7.15068</v>
+        <v>11.26371</v>
       </c>
       <c r="E39" s="48" t="n">
         <v>1.11699</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>12.67474</v>
+        <v>83.57118000000001</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>102.36802</v>
+        <v>102.98593</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>193.02607</v>
+        <v>194.94316</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>71.65387</v>
+        <v>85.50582</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>90.37353</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>23.69468</v>
+        <v>53.35824</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>22</v>
+        <v>58.41612</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>10.80371</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>3.77186</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>830.934</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>2314.02664</v>
+        <v>7726.66242</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1748.50343</v>
+        <v>4459.15224</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>3448.31783</v>
+        <v>7440.15042</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1654.21504</v>
+        <v>4483.46941</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1789.69892</v>
+        <v>12559.44042</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1689.35035</v>
+        <v>8573.48612</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>2929.71687</v>
+        <v>27315.52345</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>3285.16513</v>
+        <v>16139.86575</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>5105.77465</v>
+        <v>15689.68278</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>46166.59128</v>
+        <v>104274.16581</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>20070.56603</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>56527.93708</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>86718.595</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>14.24221</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>0.267</v>
+        <v>0.40909</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>8.63998</v>
@@ -2372,52 +2458,57 @@
         <v>0.0003</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>0</v>
+        <v>0.00424</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>7.14838</v>
+        <v>7.154649999999999</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>0</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>24.14032</v>
+        <v>24.46882</v>
       </c>
       <c r="M41" s="48" t="n">
         <v>7.88136</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>235.463</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
-        <v>0</v>
+        <v>17.939</v>
       </c>
       <c r="D42" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E42" s="48" t="n">
-        <v>0.29701</v>
+        <v>5.85223</v>
       </c>
       <c r="F42" s="48" t="n">
         <v>32.01227</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>1.7508</v>
+        <v>540.15649</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>3e-05</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>0</v>
+        <v>1e-05</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>1e-05</v>
+        <v>4e-05</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>0</v>
+        <v>2e-05</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>5.999999999999999e-05</v>
@@ -2425,593 +2516,671 @@
       <c r="M42" s="48" t="n">
         <v>3e-05</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>1402.22538</v>
+        <v>4154.8169</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>1735.91447</v>
+        <v>6622.10912</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>950.6238199999999</v>
+        <v>2088.45646</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>1499.91001</v>
+        <v>2947.93271</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>1619.29179</v>
+        <v>2643.7513</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>3294.11036</v>
+        <v>6443.937100000001</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>682.0259100000001</v>
+        <v>3357.21191</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>1679.49624</v>
+        <v>4101.69466</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1211.74595</v>
+        <v>4303.20746</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>3035.126519999999</v>
+        <v>5803.457739999999</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>5416.594309999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>10957.77167</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>5308.596</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>9851.04651</v>
+        <v>16622.88868</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>7235.133529999999</v>
+        <v>13267.50082</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>8523.820809999999</v>
+        <v>13427.00591</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>9633.40985</v>
+        <v>16848.5044</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>7335.786399999999</v>
+        <v>13822.58869</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>6400.618759999999</v>
+        <v>13931.05987</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>6541.89248</v>
+        <v>13586.3782</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>7643.89124</v>
+        <v>17485.0088</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>6564.35084</v>
+        <v>20267.78156</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>41383.61054000001</v>
+        <v>64223.68718</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>38880.19147999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>72561.43925</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>57749.97</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>9386.037109999999</v>
+        <v>15800.91246</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>6958.02284</v>
+        <v>12885.36083</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>7823.281629999999</v>
+        <v>11831.11549</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>9151.684869999999</v>
+        <v>14636.15486</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>7008.961719999999</v>
+        <v>12748.84429</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>6124.666649999999</v>
+        <v>13283.19406</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>6353.15284</v>
+        <v>13091.57055</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>7515.73074</v>
+        <v>16319.02079</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>6355.400630000001</v>
+        <v>18612.29478</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>40063.94098000001</v>
+        <v>60944.82355</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>37228.70896</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>68602.72603000001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>54386.145</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>465.0094</v>
+        <v>821.97622</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>277.11069</v>
+        <v>382.13999</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>700.53918</v>
+        <v>1595.89042</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>481.72498</v>
+        <v>2212.34954</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>326.82468</v>
+        <v>1073.7444</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>275.95211</v>
+        <v>647.86581</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>188.73964</v>
+        <v>494.80765</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>128.1605</v>
+        <v>1165.98801</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>208.95021</v>
+        <v>1655.48678</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>1319.66956</v>
+        <v>3278.86363</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1651.48252</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>3958.71322</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>3363.825</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>9290.60793</v>
+        <v>23805.27145</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>21664.33954</v>
+        <v>15765.67946</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>24634.99437</v>
+        <v>24377.16143</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>19845.94001</v>
+        <v>-9822.782389999998</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>7508.517890000001</v>
+        <v>1809.555029999999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>7798.470119999999</v>
+        <v>3670.931999999999</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>10193.21637</v>
+        <v>-3116.609939999999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>14025.04052</v>
+        <v>11149.35859</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>-383.0281699999999</v>
+        <v>3958.48043</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>67431.70115000001</v>
+        <v>51024.84295000001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>24399.55314</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>10195.15009</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>60486.551</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>6335.577850000001</v>
+        <v>8502.54175</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>4447.15224</v>
+        <v>7629.15839</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>4921.11555</v>
+        <v>11624.28436</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>6218.5127</v>
+        <v>16523.09444</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>6214.526559999999</v>
+        <v>34456.46537999999</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>4813.281440000001</v>
+        <v>12752.70579</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>4655.88872</v>
+        <v>41115.69205</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>6143.145680000001</v>
+        <v>11299.06154</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>5744.532139999999</v>
+        <v>22235.03568</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>16365.15931</v>
+        <v>29393.29808</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>25986.86299</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>69550.16982000001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>160650.792</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>147.84418</v>
+        <v>151.63762</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>38.7041</v>
+        <v>50.81293</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>48.08714</v>
+        <v>94.43758</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>68.64139999999999</v>
+        <v>104.10984</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>111.61659</v>
+        <v>116.11069</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>13.47505</v>
+        <v>16.43383</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>119.70325</v>
+        <v>220.99061</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>26.64705</v>
+        <v>35.15581</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>3.44703</v>
+        <v>15.93342</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>182.96559</v>
+        <v>265.19008</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>162.34135</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>256.94472</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>57.829</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>6187.733670000001</v>
+        <v>8350.904129999999</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>4408.44814</v>
+        <v>7578.34546</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>4873.02841</v>
+        <v>11529.84678</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>6149.8713</v>
+        <v>16418.9846</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>6102.90997</v>
+        <v>34340.35469</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>4799.80639</v>
+        <v>12736.27196</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>4536.18547</v>
+        <v>40894.70144</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>6116.498630000001</v>
+        <v>11263.90573</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>5741.085109999999</v>
+        <v>22219.10226</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>16182.19372</v>
+        <v>29128.108</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>25824.52164</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>69293.22510000001</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>160592.963</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>8149.13605</v>
+        <v>10547.85099</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>7258.21892</v>
+        <v>15614.88987</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>29271.14779</v>
+        <v>38716.08747</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>10938.74009</v>
+        <v>22923.2666</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>8599.54458</v>
+        <v>13445.1938</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>16996.62984</v>
+        <v>28127.10829</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>8173.47356</v>
+        <v>44043.22003</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>20146.64854</v>
+        <v>38230.39367</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>6557.27774</v>
+        <v>13347.32562</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>35878.57182</v>
+        <v>51531.47777</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>49540.17808</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>77336.46906999999</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>50478.708</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>878.1889699999999</v>
+        <v>1312.90599</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>335.61818</v>
+        <v>916.48748</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>503.14473</v>
+        <v>1007.2065</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>524.74492</v>
+        <v>2424.55725</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>671.1944</v>
+        <v>1677.27911</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>356.40587</v>
+        <v>953.51812</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>517.89204</v>
+        <v>2767.72412</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>757.69813</v>
+        <v>4758.01307</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>802.74082</v>
+        <v>1926.85706</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>1099.24645</v>
+        <v>3067.28449</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>951.08674</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>3086.01563</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>7250.861</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>394.25204</v>
+        <v>429.59746</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>445.71208</v>
+        <v>676.48752</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>527.776</v>
+        <v>559.3125699999999</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>554.04758</v>
+        <v>927.70977</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>978.49347</v>
+        <v>992.63144</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>165.87278</v>
+        <v>215.18312</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>235.84921</v>
+        <v>339.5254</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>563.10655</v>
+        <v>969.89112</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>235.2484</v>
+        <v>362.73805</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>521.7133</v>
+        <v>657.378</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>4393.00621</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>4518.643669999999</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>3624.344</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>6876.69504</v>
+        <v>8805.347539999999</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>6476.888660000001</v>
+        <v>14021.91487</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>28240.22706</v>
+        <v>37149.5684</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>9859.94759</v>
+        <v>19570.99958</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>6949.85671</v>
+        <v>10775.28325</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>16474.35119</v>
+        <v>26958.40705</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>7419.732309999999</v>
+        <v>40935.97051</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>18825.84386</v>
+        <v>32502.48948</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>5519.28852</v>
+        <v>11057.73051</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>34257.61207</v>
+        <v>47806.81528</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>44196.08512999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>69731.80976999999</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>39603.503</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>7477.049730000001</v>
+        <v>21759.96221</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>18853.27286</v>
+        <v>7779.947980000001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>284.96213</v>
+        <v>-2714.64168</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>15125.71262</v>
+        <v>-16222.95455</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>5123.499869999999</v>
+        <v>22820.82661</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-4384.87828</v>
+        <v>-11703.4705</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>6675.63153</v>
+        <v>-6044.13792</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>21.53766000000015</v>
+        <v>-15781.97354</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>-1195.77377</v>
+        <v>12846.19049</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>47918.28864</v>
+        <v>28886.66326</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>846.2380500000007</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>2408.85084</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>170658.635</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>6482.04656</v>
+        <v>8024.23576</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>7118.58175</v>
+        <v>7988.72426</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>7465.54146</v>
+        <v>8774.347760000001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>7170.41855</v>
+        <v>8668.6119</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>6124.2106</v>
+        <v>8397.78858</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>6141.51381</v>
+        <v>8936.216</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>6014.310769999999</v>
+        <v>8989.759679999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>6481.12975</v>
+        <v>11708.42008</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>5808.96166</v>
+        <v>12088.20237</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>24199.67627</v>
+        <v>35249.03125</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>24908.68502</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>37330.10445000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>41885.337</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>995.00317</v>
+        <v>13735.72645</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>11734.69111</v>
+        <v>-208.7762799999998</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-7180.57933</v>
+        <v>-11488.98944</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>7955.29407</v>
+        <v>-24891.56645</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-1000.71073</v>
+        <v>14423.03803</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-10526.39209</v>
+        <v>-20639.6865</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>661.3207600000003</v>
+        <v>-15033.8976</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>-6459.59209</v>
+        <v>-27490.39362</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>-7004.73543</v>
+        <v>757.9881200000001</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>23718.61237</v>
+        <v>-6362.367990000001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>-24062.44697</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-34921.25361</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>128773.298</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>3743</v>
+        <v>3993</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>3773</v>
+        <v>4082</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>3571</v>
+        <v>3937</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>3403</v>
+        <v>3842</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>3133</v>
+        <v>3676</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>2905</v>
+        <v>3543</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2845</v>
+        <v>3570</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2750</v>
+        <v>3642</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>2707</v>
+        <v>3645</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>3764</v>
+        <v>4746</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>3778</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>5064</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>5268</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>